--- a/02_output/13_regenerative_score_tests/total_ra_scores_per_field.xlsx
+++ b/02_output/13_regenerative_score_tests/total_ra_scores_per_field.xlsx
@@ -1,67 +1,86 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f304f79f068e311c/Universitaet/MASTER/MasterThesis/11_Data_Analysis_MA/02_output/13_regenerative_score_tests/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_C2CE303CC269A2FD55E0A03F110A53129275BCB6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{521FC020-B0C6-417D-9632-1ADCE0FB6388}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">participant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RA_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RA_average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2_2</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+  <si>
+    <t>participant</t>
+  </si>
+  <si>
+    <t>RA_score</t>
+  </si>
+  <si>
+    <t>RA_average</t>
+  </si>
+  <si>
+    <t>1_1</t>
+  </si>
+  <si>
+    <t>2_1</t>
+  </si>
+  <si>
+    <t>3_1</t>
+  </si>
+  <si>
+    <t>3_2</t>
+  </si>
+  <si>
+    <t>4_1</t>
+  </si>
+  <si>
+    <t>4_2</t>
+  </si>
+  <si>
+    <t>5_1</t>
+  </si>
+  <si>
+    <t>5_2</t>
+  </si>
+  <si>
+    <t>6_1</t>
+  </si>
+  <si>
+    <t>6_2</t>
+  </si>
+  <si>
+    <t>2_2</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>Reg_Conv</t>
+  </si>
+  <si>
+    <t>Conv</t>
+  </si>
+  <si>
+    <t>Reg_Org</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -94,9 +113,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -378,14 +406,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,130 +425,166 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="n">
-        <v>7</v>
-      </c>
-      <c r="C2" t="n">
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>2.25</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>4</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>4.25</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" t="n">
-        <v>7</v>
-      </c>
-      <c r="C10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>2</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>4.1875</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/02_output/13_regenerative_score_tests/total_ra_scores_per_field.xlsx
+++ b/02_output/13_regenerative_score_tests/total_ra_scores_per_field.xlsx
@@ -1,86 +1,67 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f304f79f068e311c/Universitaet/MASTER/MasterThesis/11_Data_Analysis_MA/02_output/13_regenerative_score_tests/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_C2CE303CC269A2FD55E0A03F110A53129275BCB6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{521FC020-B0C6-417D-9632-1ADCE0FB6388}"/>
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
-  <si>
-    <t>participant</t>
-  </si>
-  <si>
-    <t>RA_score</t>
-  </si>
-  <si>
-    <t>RA_average</t>
-  </si>
-  <si>
-    <t>1_1</t>
-  </si>
-  <si>
-    <t>2_1</t>
-  </si>
-  <si>
-    <t>3_1</t>
-  </si>
-  <si>
-    <t>3_2</t>
-  </si>
-  <si>
-    <t>4_1</t>
-  </si>
-  <si>
-    <t>4_2</t>
-  </si>
-  <si>
-    <t>5_1</t>
-  </si>
-  <si>
-    <t>5_2</t>
-  </si>
-  <si>
-    <t>6_1</t>
-  </si>
-  <si>
-    <t>6_2</t>
-  </si>
-  <si>
-    <t>2_2</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>Reg_Conv</t>
-  </si>
-  <si>
-    <t>Conv</t>
-  </si>
-  <si>
-    <t>Reg_Org</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t xml:space="preserve">participant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RA_average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2_2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -113,18 +94,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -406,16 +378,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.75">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -425,166 +395,130 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.75">
+    </row>
+    <row r="2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>7</v>
-      </c>
-      <c r="C2">
+      <c r="B2" t="n">
+        <v>7</v>
+      </c>
+      <c r="C2" t="n">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.75">
+    </row>
+    <row r="3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="n">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>2.25</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.75">
+    </row>
+    <row r="4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="n">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>4.25</v>
       </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.75">
+    </row>
+    <row r="6">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="n">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>7.5</v>
       </c>
-      <c r="D6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.75">
+    </row>
+    <row r="7">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="B7" t="n">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.75">
+    </row>
+    <row r="8">
       <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
+      <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="C8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="B9" t="n">
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>4.25</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.75">
+    </row>
+    <row r="10">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.75">
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
+      <c r="B11" t="n">
         <v>2</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>3.25</v>
       </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.75">
+    </row>
+    <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-      <c r="C12">
-        <v>4.1875</v>
-      </c>
-      <c r="D12" t="s">
-        <v>16</v>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>